--- a/SOLID/Занятие 3/балка - удлинение.xlsx
+++ b/SOLID/Занятие 3/балка - удлинение.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHYSTECH\Books\SOLID\Занятие 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AA9CD-3C16-4754-9CC2-0EF56E3F53F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400509E5-C08E-4F8D-A6B2-44589149DCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C916490A-E25D-429B-BA4E-C32F22527CD5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{C916490A-E25D-429B-BA4E-C32F22527CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>T</t>
   </si>
   <si>
-    <t>l, м</t>
+    <t>Delta l</t>
   </si>
   <si>
-    <t>Delta l</t>
+    <t>l, мм</t>
   </si>
 </sst>
 </file>
@@ -402,14 +402,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -420,7 +420,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>1.2999999999999999E-5</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>A2*B2*C2</f>
-        <v>1.2999999999999999E-5</v>
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
